--- a/result/25hike.xlsx
+++ b/result/25hike.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/db8eac9eaa5b2f1d/経済ファイル/02_分析/08_点検/result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{7A6B1D21-EA0A-46C6-BD1C-C47C4D0CB783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A66D446-0130-431A-A932-718736C3632A}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{7A6B1D21-EA0A-46C6-BD1C-C47C4D0CB783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB891E83-F26D-4B9E-9D86-7E86C00BAFF2}"/>
   <bookViews>
     <workbookView xWindow="38235" yWindow="4905" windowWidth="19365" windowHeight="10275" xr2:uid="{3900A3B1-9A1A-403A-8E6B-496B7FAC29A3}"/>
   </bookViews>

--- a/result/25hike.xlsx
+++ b/result/25hike.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/db8eac9eaa5b2f1d/経済ファイル/02_分析/08_点検/result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{7A6B1D21-EA0A-46C6-BD1C-C47C4D0CB783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB891E83-F26D-4B9E-9D86-7E86C00BAFF2}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{7A6B1D21-EA0A-46C6-BD1C-C47C4D0CB783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACD0ECCE-DE80-471C-AD1B-B0F2A0F887A6}"/>
   <bookViews>
     <workbookView xWindow="38235" yWindow="4905" windowWidth="19365" windowHeight="10275" xr2:uid="{3900A3B1-9A1A-403A-8E6B-496B7FAC29A3}"/>
   </bookViews>
@@ -396,13 +396,13 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="C1">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="D1">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="E1">
         <v>0</v>
@@ -410,852 +410,852 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
-        <v>3.1117072709414391E-2</v>
+        <v>4.9539478305621484E-2</v>
       </c>
       <c r="B2">
-        <v>1.6462433417342477</v>
+        <v>1.482828648036421</v>
       </c>
       <c r="C2">
-        <v>1.610677470400173</v>
+        <v>1.4273375684690084</v>
       </c>
       <c r="D2">
-        <v>1.5131619007560824</v>
+        <v>1.2709545783232779</v>
       </c>
       <c r="E2">
-        <v>-9.9999999999997789E-6</v>
+        <v>-1.000000000000119E-5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
-        <v>8.3897235166905282E-2</v>
+        <v>0.13414609359043725</v>
       </c>
       <c r="B3">
-        <v>1.7657322218491545</v>
+        <v>1.675780476516227</v>
       </c>
       <c r="C3">
-        <v>1.6866924362564863</v>
+        <v>1.5472268698337288</v>
       </c>
       <c r="D3">
-        <v>1.5358932296544587</v>
+        <v>1.3073889091606432</v>
       </c>
       <c r="E3">
-        <v>-9.9999999999977494E-6</v>
+        <v>-1.0000000000000739E-5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
-        <v>0.15307479395180196</v>
+        <v>0.24421067667960472</v>
       </c>
       <c r="B4">
-        <v>1.8818733517853243</v>
+        <v>1.8579682183076223</v>
       </c>
       <c r="C4">
-        <v>1.7513251220551751</v>
+        <v>1.6535967872670894</v>
       </c>
       <c r="D4">
-        <v>1.5670314406462367</v>
+        <v>1.3569410469838714</v>
       </c>
       <c r="E4">
-        <v>-9.9999999999683675E-6</v>
+        <v>-9.999999999995127E-6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
-        <v>0.19213376074924216</v>
+        <v>0.32953850322660372</v>
       </c>
       <c r="B5">
-        <v>1.9703615215428429</v>
+        <v>2.0059462753145656</v>
       </c>
       <c r="C5">
-        <v>1.8098180846363439</v>
+        <v>1.7416207125319034</v>
       </c>
       <c r="D5">
-        <v>1.6033311479269312</v>
+        <v>1.415351517533634</v>
       </c>
       <c r="E5">
-        <v>0.24999999999999997</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
-        <v>0.22322451739157906</v>
+        <v>0.36708716631807436</v>
       </c>
       <c r="B6">
-        <v>2.036564111280676</v>
+        <v>2.1000997260942427</v>
       </c>
       <c r="C6">
-        <v>1.8541824296664009</v>
+        <v>1.8049776316410207</v>
       </c>
       <c r="D6">
-        <v>1.6423221146287683</v>
+        <v>1.4769788563040886</v>
       </c>
       <c r="E6">
-        <v>0.25306540702103297</v>
+        <v>0.50441327106219147</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
-        <v>0.22887099969176919</v>
+        <v>0.35650182343746345</v>
       </c>
       <c r="B7">
-        <v>2.073431329672629</v>
+        <v>2.1381291896590771</v>
       </c>
       <c r="C7">
-        <v>1.8851395795117543</v>
+        <v>1.8444747356646456</v>
       </c>
       <c r="D7">
-        <v>1.6811219439827156</v>
+        <v>1.5364823863060377</v>
       </c>
       <c r="E7">
-        <v>0.40107210422482914</v>
+        <v>0.69892739665131642</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
-        <v>0.21280601468807236</v>
+        <v>0.31620558781400043</v>
       </c>
       <c r="B8">
-        <v>2.0833333160338103</v>
+        <v>2.1349086255526699</v>
       </c>
       <c r="C8">
-        <v>1.9042444860119256</v>
+        <v>1.8658800774563511</v>
       </c>
       <c r="D8">
-        <v>1.7173209674673142</v>
+        <v>1.5903407478382345</v>
       </c>
       <c r="E8">
-        <v>0.48313701640321871</v>
+        <v>0.78030358720716331</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
-        <v>0.18545420779372485</v>
+        <v>0.2661805135780213</v>
       </c>
       <c r="B9">
-        <v>2.0755424342005377</v>
+        <v>2.1106736723741228</v>
       </c>
       <c r="C9">
-        <v>1.9150699066811228</v>
+        <v>1.8768310834529216</v>
       </c>
       <c r="D9">
-        <v>1.7495608994733043</v>
+        <v>1.6371707110464644</v>
       </c>
       <c r="E9">
-        <v>0.5107062159073843</v>
+        <v>0.78511296564742927</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
-        <v>0.15632552948468659</v>
+        <v>0.22016011688356751</v>
       </c>
       <c r="B10">
-        <v>2.0602911641751995</v>
+        <v>2.0820698089607355</v>
       </c>
       <c r="C10">
-        <v>1.9215286229935808</v>
+        <v>1.8837549432595702</v>
       </c>
       <c r="D10">
-        <v>1.7775266232964748</v>
+        <v>1.6772116298587489</v>
       </c>
       <c r="E10">
-        <v>0.50559444354617222</v>
+        <v>0.7546908417544429</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
-        <v>0.13114879224798467</v>
+        <v>0.18422664229325839</v>
       </c>
       <c r="B11">
-        <v>2.0450482783717234</v>
+        <v>2.0586804061580057</v>
       </c>
       <c r="C11">
-        <v>1.9265662508139252</v>
+        <v>1.8905381232897964</v>
       </c>
       <c r="D11">
-        <v>1.8016035722532471</v>
+        <v>1.711543819725682</v>
       </c>
       <c r="E11">
-        <v>0.48826886739233172</v>
+        <v>0.71970037087417282</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
-        <v>0.1118772084920385</v>
+        <v>0.15872259311044459</v>
       </c>
       <c r="B12">
-        <v>2.0335288955309085</v>
+        <v>2.0435928220934416</v>
       </c>
       <c r="C12">
-        <v>1.9317604258239711</v>
+        <v>1.898654848834715</v>
       </c>
       <c r="D12">
-        <v>1.8224768513482368</v>
+        <v>1.7414282299387804</v>
       </c>
       <c r="E12">
-        <v>0.47217438581416071</v>
+        <v>0.69593118327704817</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
-        <v>9.7963809223820197E-2</v>
+        <v>0.14106041591928237</v>
       </c>
       <c r="B13">
-        <v>2.0264298571342856</v>
+        <v>2.0357708092675408</v>
       </c>
       <c r="C13">
-        <v>1.9375546267828012</v>
+        <v>1.9079960058588568</v>
       </c>
       <c r="D13">
-        <v>1.840832621868981</v>
+        <v>1.7679190620783689</v>
       </c>
       <c r="E13">
-        <v>0.4631368615438009</v>
+        <v>0.68702652005285147</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
-        <v>8.7798371806341979E-2</v>
+        <v>0.12802841753733576</v>
       </c>
       <c r="B14">
-        <v>2.0227648917015708</v>
+        <v>2.0325280789108744</v>
       </c>
       <c r="C14">
-        <v>1.9437335744266151</v>
+        <v>1.9177727558025737</v>
       </c>
       <c r="D14">
-        <v>1.8572065261539141</v>
+        <v>1.7917338735932944</v>
       </c>
       <c r="E14">
-        <v>0.46149825195998745</v>
+        <v>0.68969543000576261</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
-        <v>7.9745506825307746E-2</v>
+        <v>0.11710118413182996</v>
       </c>
       <c r="B15">
-        <v>2.0210519910594695</v>
+        <v>2.0312466290551487</v>
       </c>
       <c r="C15">
-        <v>1.9498616634469434</v>
+        <v>1.9271640785754036</v>
       </c>
       <c r="D15">
-        <v>1.8719526179954142</v>
+        <v>1.8132900215848613</v>
       </c>
       <c r="E15">
-        <v>0.46489772160546011</v>
+        <v>0.69843759197845157</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
-        <v>7.2652499710578272E-2</v>
+        <v>0.10684755665791355</v>
       </c>
       <c r="B16">
-        <v>2.020042978641023</v>
+        <v>2.0301758284179581</v>
       </c>
       <c r="C16">
-        <v>1.9555614359562465</v>
+        <v>1.9356322630129754</v>
       </c>
       <c r="D16">
-        <v>1.8852807504535189</v>
+        <v>1.8328097441998401</v>
       </c>
       <c r="E16">
-        <v>0.47046862593301064</v>
+        <v>0.70850734603149168</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
-        <v>6.5938382515271912E-2</v>
+        <v>9.6774989132813696E-2</v>
       </c>
       <c r="B17">
-        <v>2.0189968244809462</v>
+        <v>2.0285331195622223</v>
       </c>
       <c r="C17">
-        <v>1.9606253066299471</v>
+        <v>1.9429778864962757</v>
       </c>
       <c r="D17">
-        <v>1.8973151971159874</v>
+        <v>1.8504248479824543</v>
       </c>
       <c r="E17">
-        <v>0.47604680119608583</v>
+        <v>0.71707764509176086</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
-        <v>5.9453983698643111E-2</v>
+        <v>8.6955304163263303E-2</v>
       </c>
       <c r="B18">
-        <v>2.017646229320992</v>
+        <v>2.0262388670418998</v>
       </c>
       <c r="C18">
-        <v>1.9650116041937349</v>
+        <v>1.9492530707801157</v>
       </c>
       <c r="D18">
-        <v>1.908144990014438</v>
+        <v>1.8662481096978045</v>
       </c>
       <c r="E18">
-        <v>0.48051622852383929</v>
+        <v>0.72316885295556466</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
-        <v>5.3277971101208479E-2</v>
+        <v>7.7667424784810146E-2</v>
       </c>
       <c r="B19">
-        <v>2.0160286736418067</v>
+        <v>2.0235628601329849</v>
       </c>
       <c r="C19">
-        <v>1.9687869316821138</v>
+        <v>1.9546356951393964</v>
       </c>
       <c r="D19">
-        <v>1.9178545215409011</v>
+        <v>1.8804064372369707</v>
       </c>
       <c r="E19">
-        <v>0.48363178245697092</v>
+        <v>0.72701260424075986</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
-        <v>4.7548380286539099E-2</v>
+        <v>6.9163872027702356E-2</v>
       </c>
       <c r="B20">
-        <v>2.0143076689380703</v>
+        <v>2.0208434802619761</v>
       </c>
       <c r="C20">
-        <v>1.9720618532400325</v>
+        <v>1.9593261644500033</v>
       </c>
       <c r="D20">
-        <v>1.9265353048066463</v>
+        <v>1.8930457711092212</v>
       </c>
       <c r="E20">
-        <v>0.48565067549612367</v>
+        <v>0.72935354739595382</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
-        <v>4.2365530573428643E-2</v>
+        <v>6.15717186971333E-2</v>
       </c>
       <c r="B21">
-        <v>2.0126473399898699</v>
+        <v>2.0183326407871034</v>
       </c>
       <c r="C21">
-        <v>1.9749444741284758</v>
+        <v>1.9634887322974461</v>
       </c>
       <c r="D21">
-        <v>1.9342853879731363</v>
+        <v>1.9043215893802308</v>
       </c>
       <c r="E21">
-        <v>0.48699269885362229</v>
+        <v>0.73094865524743424</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
-        <v>3.7760256148343767E-2</v>
+        <v>5.4889424530941082E-2</v>
       </c>
       <c r="B22">
-        <v>2.0111531072126869</v>
+        <v>2.0161509447354198</v>
       </c>
       <c r="C22">
-        <v>1.9775177760839828</v>
+        <v>1.967233332515212</v>
       </c>
       <c r="D22">
-        <v>1.941203482704696</v>
+        <v>1.9143862313621978</v>
       </c>
       <c r="E22">
-        <v>0.48802473395176971</v>
+        <v>0.73232356973955259</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
-        <v>3.3703348959565817E-2</v>
+        <v>4.9030038327224051E-2</v>
       </c>
       <c r="B23">
-        <v>2.0098630477770651</v>
+        <v>2.0143097896778306</v>
       </c>
       <c r="C23">
-        <v>1.9798357802503694</v>
+        <v>1.9706228237015808</v>
       </c>
       <c r="D23">
-        <v>1.9473828435612093</v>
+        <v>1.9233793516106048</v>
       </c>
       <c r="E23">
-        <v>0.48897458455963527</v>
+        <v>0.73373069930579304</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
-        <v>3.0131359338885191E-2</v>
+        <v>4.3872143635534287E-2</v>
       </c>
       <c r="B24">
-        <v>2.0087661570611779</v>
+        <v>2.0127581049117769</v>
       </c>
       <c r="C24">
-        <v>1.981930013222863</v>
+        <v>1.9736901091979784</v>
       </c>
       <c r="D24">
-        <v>1.9529073417762064</v>
+        <v>1.9314234394077103</v>
       </c>
       <c r="E24">
-        <v>0.48993450104342967</v>
+        <v>0.73521715443973468</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
-        <v>2.6971609838458813E-2</v>
+        <v>3.929765065022079E-2</v>
       </c>
       <c r="B25">
-        <v>2.0078273550360599</v>
+        <v>2.0114254305476753</v>
       </c>
       <c r="C25">
-        <v>1.9838189145224814</v>
+        <v>1.9764545937329712</v>
       </c>
       <c r="D25">
-        <v>1.9578501429695931</v>
+        <v>1.9386236186103072</v>
       </c>
       <c r="E25">
-        <v>0.49090628821475152</v>
+        <v>0.73672291949507118</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
-        <v>2.4158542910546567E-2</v>
+        <v>3.5210803425341317E-2</v>
       </c>
       <c r="B26">
-        <v>2.0070075829611507</v>
+        <v>2.0102492605353239</v>
       </c>
       <c r="C26">
-        <v>1.9855155722283444</v>
+        <v>1.9789329473346391</v>
       </c>
       <c r="D26">
-        <v>1.9622743125688333</v>
+        <v>1.9450699263835585</v>
       </c>
       <c r="E26">
-        <v>0.49185162912408031</v>
+        <v>0.73816161461319096</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
-        <v>2.1640459171659319E-2</v>
+        <v>3.1541815945485621E-2</v>
       </c>
       <c r="B27">
-        <v>2.0062747466881556</v>
+        <v>2.0091855800358212</v>
       </c>
       <c r="C27">
-        <v>1.9870323461885016</v>
+        <v>1.9811439523874685</v>
       </c>
       <c r="D27">
-        <v>1.9662343516395724</v>
+        <v>1.9508403352122623</v>
       </c>
       <c r="E27">
-        <v>0.49272840230808912</v>
+        <v>0.73946650821361415</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
-        <v>1.9379382645393111E-2</v>
+        <v>2.8241852517580029E-2</v>
       </c>
       <c r="B28">
-        <v>2.0056069489693633</v>
+        <v>2.0082082838412902</v>
       </c>
       <c r="C28">
-        <v>1.9883822301943039</v>
+        <v>1.9831085396237667</v>
       </c>
       <c r="D28">
-        <v>1.9697778853992536</v>
+        <v>1.9560034505888746</v>
       </c>
       <c r="E28">
-        <v>0.49350867487857897</v>
+        <v>0.74060524720019061</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
-        <v>1.7347520434643396E-2</v>
+        <v>2.5275259183865414E-2</v>
       </c>
       <c r="B29">
-        <v>2.0049902203009027</v>
+        <v>2.00730232245829</v>
       </c>
       <c r="C29">
-        <v>1.9895787292965432</v>
+        <v>1.9848482849570153</v>
       </c>
       <c r="D29">
-        <v>1.972946995540402</v>
+        <v>1.9606203490571221</v>
       </c>
       <c r="E29">
-        <v>0.49418162219394729</v>
+        <v>0.741574152432811</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
-        <v>1.5523247027468818E-2</v>
+        <v>2.2613010035249691E-2</v>
       </c>
       <c r="B30">
-        <v>2.0044153028344835</v>
+        <v>2.0064574947191951</v>
       </c>
       <c r="C30">
-        <v>1.9906339922855067</v>
+        <v>1.9863820424993124</v>
       </c>
       <c r="D30">
-        <v>1.9757791431968694</v>
+        <v>1.9647456921667086</v>
       </c>
       <c r="E30">
-        <v>0.49474887020810093</v>
+        <v>0.74238546201364985</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
-        <v>1.388788097262442E-2</v>
+        <v>2.0228437025464344E-2</v>
       </c>
       <c r="B31">
-        <v>2.0038725970554792</v>
+        <v>2.0056609191219845</v>
       </c>
       <c r="C31">
-        <v>1.9915584292837987</v>
+        <v>1.9877253465759206</v>
       </c>
       <c r="D31">
-        <v>1.9783075540441444</v>
+        <v>1.9684280625926838</v>
       </c>
       <c r="E31">
-        <v>0.49521611752782146</v>
+        <v>0.74305292330189154</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
-        <v>1.2424158447318789E-2</v>
+        <v>1.80958470535597E-2</v>
       </c>
       <c r="B32">
-        <v>2.0033514412551816</v>
+        <v>2.0048966742227448</v>
       </c>
       <c r="C32">
-        <v>1.9923574490320575</v>
+        <v>1.9888857551083681</v>
       </c>
       <c r="D32">
-        <v>1.9805615038931377</v>
+        <v>1.9717102376393891</v>
       </c>
       <c r="E32">
-        <v>0.49558780579415784</v>
+        <v>0.74358442795806412</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
-        <v>1.1115273441619441E-2</v>
+        <v>1.61898600680737E-2</v>
       </c>
       <c r="B33">
-        <v>2.0028336969882332</v>
+        <v>2.0041369798466797</v>
       </c>
       <c r="C33">
-        <v>1.9930339238224417</v>
+        <v>1.9898668332535303</v>
       </c>
       <c r="D33">
-        <v>1.9825660012716964</v>
+        <v>1.9746286444380452</v>
       </c>
       <c r="E33">
-        <v>0.49585966991224273</v>
+        <v>0.74397243561096715</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
-        <v>9.9456667768741541E-3</v>
+        <v>1.4487059723701106E-2</v>
       </c>
       <c r="B34">
-        <v>2.0022996295233835</v>
+        <v>2.003351606490861</v>
       </c>
       <c r="C34">
-        <v>1.9935799957562608</v>
+        <v>1.9906560713036345</v>
       </c>
       <c r="D34">
-        <v>1.9843420278143482</v>
+        <v>1.9772137110227985</v>
       </c>
       <c r="E34">
-        <v>0.49602047362552437</v>
+        <v>0.74419812083014347</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
-        <v>8.9000390716989595E-3</v>
+        <v>1.296468156196476E-2</v>
       </c>
       <c r="B35">
-        <v>2.0017108755263999</v>
+        <v>2.0024826097544777</v>
       </c>
       <c r="C35">
-        <v>1.9939878406695386</v>
+        <v>1.9912411439030691</v>
       </c>
       <c r="D35">
-        <v>1.985905224108433</v>
+        <v>1.9794879119086497</v>
       </c>
       <c r="E35">
-        <v>0.49603998576052133</v>
+        <v>0.74421434396775121</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
-        <v>7.9660578438963681E-3</v>
+        <v>1.1604649924566137E-2</v>
       </c>
       <c r="B36">
-        <v>2.0010339188079498</v>
+        <v>2.0014796139281077</v>
       </c>
       <c r="C36">
-        <v>1.9942231427449268</v>
+        <v>1.9915701305327689</v>
       </c>
       <c r="D36">
-        <v>1.9872668066313894</v>
+        <v>1.981467165090401</v>
       </c>
       <c r="E36">
-        <v>0.49588242163304358</v>
+        <v>0.7439662509438455</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
-        <v>7.1299589335377493E-3</v>
+        <v>1.0386870474370424E-2</v>
       </c>
       <c r="B37">
-        <v>2.000183905798226</v>
+        <v>2.000215436391831</v>
       </c>
       <c r="C37">
-        <v>1.9942645724669332</v>
+        <v>1.9916107260093663</v>
       </c>
       <c r="D37">
-        <v>1.9884293455564048</v>
+        <v>1.9831545095075298</v>
       </c>
       <c r="E37">
-        <v>0.49546860840880319</v>
+        <v>0.74333451628941116</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
-        <v>6.3849395388405851E-3</v>
+        <v>9.30171426906958E-3</v>
       </c>
       <c r="B38">
-        <v>1.999110021539096</v>
+        <v>1.9986140884837003</v>
       </c>
       <c r="C38">
-        <v>1.9940153825579428</v>
+        <v>1.9912175487079276</v>
       </c>
       <c r="D38">
-        <v>1.989390606394847</v>
+        <v>1.9845458716153852</v>
       </c>
       <c r="E38">
-        <v>0.49472599012843477</v>
+        <v>0.74221018834425334</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
-        <v>5.7153932655922314E-3</v>
+        <v>8.3262888796092529E-3</v>
       </c>
       <c r="B39">
-        <v>1.9976078640804498</v>
+        <v>1.9963691557686407</v>
       </c>
       <c r="C39">
-        <v>1.9934455718839061</v>
+        <v>1.9903454249442811</v>
       </c>
       <c r="D39">
-        <v>1.9901301595865513</v>
+        <v>1.9856099671891783</v>
       </c>
       <c r="E39">
-        <v>0.49346374600490578</v>
+        <v>0.74030708264359502</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
-        <v>5.1259159426431319E-3</v>
+        <v>7.4679310721769993E-3</v>
       </c>
       <c r="B40">
-        <v>1.9956260282854155</v>
+        <v>1.9934037846973747</v>
       </c>
       <c r="C40">
-        <v>1.9922944017023165</v>
+        <v>1.9886029950233515</v>
       </c>
       <c r="D40">
-        <v>1.9906247877694492</v>
+        <v>1.986311410764916</v>
       </c>
       <c r="E40">
-        <v>0.49155700227383248</v>
+        <v>0.73743803192739121</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
-        <v>4.5870122195439539E-3</v>
+        <v>6.6827401243234105E-3</v>
       </c>
       <c r="B41">
-        <v>1.9926333683300819</v>
+        <v>1.9889212506159581</v>
       </c>
       <c r="C41">
-        <v>1.9905754746269508</v>
+        <v>1.9860105869690967</v>
       </c>
       <c r="D41">
-        <v>1.9908055600199059</v>
+        <v>1.9865462963515097</v>
       </c>
       <c r="E41">
-        <v>0.48853279659094079</v>
+        <v>0.73289354764122905</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
-        <v>4.1359223706926539E-3</v>
+        <v>6.026886150418455E-3</v>
       </c>
       <c r="B42">
-        <v>1.9887052218153236</v>
+        <v>1.983034868422328</v>
       </c>
       <c r="C42">
-        <v>1.9875660474183454</v>
+        <v>1.9814836853480449</v>
       </c>
       <c r="D42">
-        <v>1.9906165295814935</v>
+        <v>1.9862302678378834</v>
       </c>
       <c r="E42">
-        <v>0.48423588815189528</v>
+        <v>0.72644087132827395</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
-        <v>3.6890447118222117E-3</v>
+        <v>5.3751687410549904E-3</v>
       </c>
       <c r="B43">
-        <v>1.9823693442982089</v>
+        <v>1.9735358422263429</v>
       </c>
       <c r="C43">
-        <v>1.9835837117469715</v>
+        <v>1.9754988760683285</v>
       </c>
       <c r="D43">
-        <v>1.9898742829059981</v>
+        <v>1.9850877695328446</v>
       </c>
       <c r="E43">
-        <v>0.47743709839986798</v>
+        <v>0.71623582588922607</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
-        <v>3.3912340302909242E-3</v>
+        <v>4.9451578629795901E-3</v>
       </c>
       <c r="B44">
-        <v>1.9744193587061116</v>
+        <v>1.9616154254435942</v>
       </c>
       <c r="C44">
-        <v>1.976528783328751</v>
+        <v>1.9649057080006238</v>
       </c>
       <c r="D44">
-        <v>1.9884833397280082</v>
+        <v>1.9829752585648122</v>
       </c>
       <c r="E44">
-        <v>0.46819927514797149</v>
+        <v>0.70237303362223469</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
-        <v>2.9665094596972442E-3</v>
+        <v>4.3229360377254967E-3</v>
       </c>
       <c r="B45">
-        <v>1.9605351261567097</v>
+        <v>1.9407917972969608</v>
       </c>
       <c r="C45">
-        <v>1.9680953201691365</v>
+        <v>1.9522464144205207</v>
       </c>
       <c r="D45">
-        <v>1.9859680005065914</v>
+        <v>1.9791787470507054</v>
       </c>
       <c r="E45">
-        <v>0.45314859761144244</v>
+        <v>0.67979056212304667</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
-        <v>2.9271689964585315E-3</v>
+        <v>4.2773876684296134E-3</v>
       </c>
       <c r="B46">
-        <v>1.9445975716473662</v>
+        <v>1.9168891380939637</v>
       </c>
       <c r="C46">
-        <v>1.9518896806672241</v>
+        <v>1.9279277843888702</v>
       </c>
       <c r="D46">
-        <v>1.9822446619092611</v>
+        <v>1.9735726822445989</v>
       </c>
       <c r="E46">
-        <v>0.43379524673800807</v>
+        <v>0.65075525515231125</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
-        <v>2.3257073989800437E-3</v>
+        <v>3.3869363573466836E-3</v>
       </c>
       <c r="B47">
-        <v>1.9133068031791363</v>
+        <v>1.8699520478939862</v>
       </c>
       <c r="C47">
-        <v>1.9350615476822748</v>
+        <v>1.9026787591849059</v>
       </c>
       <c r="D47">
-        <v>1.97604025462355</v>
+        <v>1.9642468251530438</v>
       </c>
       <c r="E47">
-        <v>0.40035328410501098</v>
+        <v>0.60058447957917582</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
-        <v>2.9400463324272112E-3</v>
+        <v>4.319512419410477E-3</v>
       </c>
       <c r="B48">
-        <v>1.8825182496938901</v>
+        <v>1.8237734230919034</v>
       </c>
       <c r="C48">
-        <v>1.8973611011956868</v>
+        <v>1.8461155517749903</v>
       </c>
       <c r="D48">
-        <v>1.9676232741798805</v>
+        <v>1.9516042189675411</v>
       </c>
       <c r="E48">
-        <v>0.36082359323713165</v>
+        <v>0.54128547955764605</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
-        <v>1.4900668520323847E-3</v>
+        <v>2.1534025700575103E-3</v>
       </c>
       <c r="B49">
-        <v>1.8097278039363924</v>
+        <v>1.71457802133745</v>
       </c>
       <c r="C49">
-        <v>1.8662995866118821</v>
+        <v>1.7995208134636203</v>
       </c>
       <c r="D49">
-        <v>1.9534126818579667</v>
+        <v>1.9302718611808327</v>
       </c>
       <c r="E49">
-        <v>0.28538688173709365</v>
+        <v>0.42811694889043039</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
-        <v>4.1249553732792196E-3</v>
+        <v>6.115616941848318E-3</v>
       </c>
       <c r="B50">
-        <v>1.7549991831952467</v>
+        <v>1.6324954887812864</v>
       </c>
       <c r="C50">
-        <v>1.775815520426302</v>
+        <v>1.663771528608301</v>
       </c>
       <c r="D50">
-        <v>1.9355554669783219</v>
+        <v>1.9034719876648736</v>
       </c>
       <c r="E50">
-        <v>0.2076796760382425</v>
+        <v>0.31155480082003573</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
-        <v>-5.2421234710869349E-4</v>
+        <v>-8.5290451124724899E-4</v>
       </c>
       <c r="B51">
-        <v>1.5787561878761456</v>
+        <v>1.3680959749959003</v>
       </c>
       <c r="C51">
-        <v>1.7270631724143897</v>
+        <v>1.5906544299699157</v>
       </c>
       <c r="D51">
-        <v>1.9034435318591261</v>
+        <v>1.855288146524666</v>
       </c>
       <c r="E51">
-        <v>3.316006018358001E-2</v>
+        <v>4.9744166436723747E-2</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1263,13 +1263,13 @@
         <v>0</v>
       </c>
       <c r="B52">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="C52">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="D52">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="E52">
         <v>0</v>

--- a/result/25hike.xlsx
+++ b/result/25hike.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/db8eac9eaa5b2f1d/経済ファイル/02_分析/08_点検/result/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/db8eac9eaa5b2f1d/デスクトップ/08_点検/result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{7A6B1D21-EA0A-46C6-BD1C-C47C4D0CB783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACD0ECCE-DE80-471C-AD1B-B0F2A0F887A6}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{7A6B1D21-EA0A-46C6-BD1C-C47C4D0CB783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D530199E-6D4D-4C1E-9A27-C35A0A64DCE5}"/>
   <bookViews>
     <workbookView xWindow="38235" yWindow="4905" windowWidth="19365" windowHeight="10275" xr2:uid="{3900A3B1-9A1A-403A-8E6B-496B7FAC29A3}"/>
   </bookViews>

--- a/result/25hike.xlsx
+++ b/result/25hike.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/db8eac9eaa5b2f1d/デスクトップ/08_点検/result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{7A6B1D21-EA0A-46C6-BD1C-C47C4D0CB783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D530199E-6D4D-4C1E-9A27-C35A0A64DCE5}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{7A6B1D21-EA0A-46C6-BD1C-C47C4D0CB783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAA321D3-C093-4F44-9019-806ACA4510DF}"/>
   <bookViews>
-    <workbookView xWindow="38235" yWindow="4905" windowWidth="19365" windowHeight="10275" xr2:uid="{3900A3B1-9A1A-403A-8E6B-496B7FAC29A3}"/>
+    <workbookView xWindow="38235" yWindow="4380" windowWidth="19365" windowHeight="10275" xr2:uid="{3900A3B1-9A1A-403A-8E6B-496B7FAC29A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -410,10 +410,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
-        <v>4.9539478305621484E-2</v>
+        <v>4.9539478305621436E-2</v>
       </c>
       <c r="B2">
-        <v>1.482828648036421</v>
+        <v>1.4828286480364208</v>
       </c>
       <c r="C2">
         <v>1.4273375684690084</v>
@@ -422,55 +422,55 @@
         <v>1.2709545783232779</v>
       </c>
       <c r="E2">
-        <v>-1.000000000000119E-5</v>
+        <v>-9.9999999999997941E-6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
-        <v>0.13414609359043725</v>
+        <v>0.13414609359043711</v>
       </c>
       <c r="B3">
-        <v>1.675780476516227</v>
+        <v>1.6757804765162265</v>
       </c>
       <c r="C3">
-        <v>1.5472268698337288</v>
+        <v>1.5472268698337286</v>
       </c>
       <c r="D3">
         <v>1.3073889091606432</v>
       </c>
       <c r="E3">
-        <v>-1.0000000000000739E-5</v>
+        <v>-1.0000000000000594E-5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
-        <v>0.24421067667960472</v>
+        <v>0.2442106766796045</v>
       </c>
       <c r="B4">
-        <v>1.8579682183076223</v>
+        <v>1.8579682183076218</v>
       </c>
       <c r="C4">
-        <v>1.6535967872670894</v>
+        <v>1.6535967872670889</v>
       </c>
       <c r="D4">
         <v>1.3569410469838714</v>
       </c>
       <c r="E4">
-        <v>-9.999999999995127E-6</v>
+        <v>-1.0000000000000814E-5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
-        <v>0.32953850322660372</v>
+        <v>0.32953850322660339</v>
       </c>
       <c r="B5">
-        <v>2.0059462753145656</v>
+        <v>2.0059462753145647</v>
       </c>
       <c r="C5">
-        <v>1.7416207125319034</v>
+        <v>1.7416207125319032</v>
       </c>
       <c r="D5">
-        <v>1.415351517533634</v>
+        <v>1.4153515175336338</v>
       </c>
       <c r="E5">
         <v>0.25</v>
@@ -478,64 +478,64 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
-        <v>0.36708716631807436</v>
+        <v>0.36708716631807409</v>
       </c>
       <c r="B6">
-        <v>2.1000997260942427</v>
+        <v>2.1000997260942418</v>
       </c>
       <c r="C6">
-        <v>1.8049776316410207</v>
+        <v>1.8049776316410204</v>
       </c>
       <c r="D6">
-        <v>1.4769788563040886</v>
+        <v>1.4769788563040884</v>
       </c>
       <c r="E6">
-        <v>0.50441327106219147</v>
+        <v>0.50441327106219014</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
-        <v>0.35650182343746345</v>
+        <v>0.35650182343746339</v>
       </c>
       <c r="B7">
-        <v>2.1381291896590771</v>
+        <v>2.1381291896590766</v>
       </c>
       <c r="C7">
         <v>1.8444747356646456</v>
       </c>
       <c r="D7">
-        <v>1.5364823863060377</v>
+        <v>1.5364823863060373</v>
       </c>
       <c r="E7">
-        <v>0.69892739665131642</v>
+        <v>0.69892739665131542</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
-        <v>0.31620558781400043</v>
+        <v>0.31620558781400054</v>
       </c>
       <c r="B8">
-        <v>2.1349086255526699</v>
+        <v>2.1349086255526695</v>
       </c>
       <c r="C8">
-        <v>1.8658800774563511</v>
+        <v>1.8658800774563509</v>
       </c>
       <c r="D8">
-        <v>1.5903407478382345</v>
+        <v>1.5903407478382343</v>
       </c>
       <c r="E8">
-        <v>0.78030358720716331</v>
+        <v>0.78030358720716286</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
-        <v>0.2661805135780213</v>
+        <v>0.26618051357802153</v>
       </c>
       <c r="B9">
         <v>2.1106736723741228</v>
       </c>
       <c r="C9">
-        <v>1.8768310834529216</v>
+        <v>1.8768310834529212</v>
       </c>
       <c r="D9">
         <v>1.6371707110464644</v>
@@ -546,7 +546,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
-        <v>0.22016011688356751</v>
+        <v>0.22016011688356774</v>
       </c>
       <c r="B10">
         <v>2.0820698089607355</v>
@@ -555,7 +555,7 @@
         <v>1.8837549432595702</v>
       </c>
       <c r="D10">
-        <v>1.6772116298587489</v>
+        <v>1.6772116298587487</v>
       </c>
       <c r="E10">
         <v>0.7546908417544429</v>
@@ -563,7 +563,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
-        <v>0.18422664229325839</v>
+        <v>0.18422664229325855</v>
       </c>
       <c r="B11">
         <v>2.0586804061580057</v>
@@ -572,7 +572,7 @@
         <v>1.8905381232897964</v>
       </c>
       <c r="D11">
-        <v>1.711543819725682</v>
+        <v>1.7115438197256818</v>
       </c>
       <c r="E11">
         <v>0.71970037087417282</v>
@@ -580,16 +580,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
-        <v>0.15872259311044459</v>
+        <v>0.15872259311044473</v>
       </c>
       <c r="B12">
         <v>2.0435928220934416</v>
       </c>
       <c r="C12">
-        <v>1.898654848834715</v>
+        <v>1.8986548488347146</v>
       </c>
       <c r="D12">
-        <v>1.7414282299387804</v>
+        <v>1.7414282299387802</v>
       </c>
       <c r="E12">
         <v>0.69593118327704817</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
-        <v>0.14106041591928237</v>
+        <v>0.14106041591928248</v>
       </c>
       <c r="B13">
         <v>2.0357708092675408</v>
@@ -606,100 +606,100 @@
         <v>1.9079960058588568</v>
       </c>
       <c r="D13">
-        <v>1.7679190620783689</v>
+        <v>1.7679190620783687</v>
       </c>
       <c r="E13">
-        <v>0.68702652005285147</v>
+        <v>0.68702652005285159</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
-        <v>0.12802841753733576</v>
+        <v>0.12802841753733585</v>
       </c>
       <c r="B14">
         <v>2.0325280789108744</v>
       </c>
       <c r="C14">
-        <v>1.9177727558025737</v>
+        <v>1.9177727558025734</v>
       </c>
       <c r="D14">
         <v>1.7917338735932944</v>
       </c>
       <c r="E14">
-        <v>0.68969543000576261</v>
+        <v>0.6896954300057625</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
-        <v>0.11710118413182996</v>
+        <v>0.11710118413183003</v>
       </c>
       <c r="B15">
         <v>2.0312466290551487</v>
       </c>
       <c r="C15">
-        <v>1.9271640785754036</v>
+        <v>1.9271640785754034</v>
       </c>
       <c r="D15">
         <v>1.8132900215848613</v>
       </c>
       <c r="E15">
-        <v>0.69843759197845157</v>
+        <v>0.69843759197845134</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
-        <v>0.10684755665791355</v>
+        <v>0.10684755665791361</v>
       </c>
       <c r="B16">
-        <v>2.0301758284179581</v>
+        <v>2.0301758284179576</v>
       </c>
       <c r="C16">
-        <v>1.9356322630129754</v>
+        <v>1.9356322630129752</v>
       </c>
       <c r="D16">
-        <v>1.8328097441998401</v>
+        <v>1.8328097441998399</v>
       </c>
       <c r="E16">
-        <v>0.70850734603149168</v>
+        <v>0.70850734603149135</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
-        <v>9.6774989132813696E-2</v>
+        <v>9.6774989132813766E-2</v>
       </c>
       <c r="B17">
         <v>2.0285331195622223</v>
       </c>
       <c r="C17">
-        <v>1.9429778864962757</v>
+        <v>1.9429778864962755</v>
       </c>
       <c r="D17">
         <v>1.8504248479824543</v>
       </c>
       <c r="E17">
-        <v>0.71707764509176086</v>
+        <v>0.71707764509176053</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
-        <v>8.6955304163263303E-2</v>
+        <v>8.6955304163263386E-2</v>
       </c>
       <c r="B18">
         <v>2.0262388670418998</v>
       </c>
       <c r="C18">
-        <v>1.9492530707801157</v>
+        <v>1.9492530707801154</v>
       </c>
       <c r="D18">
-        <v>1.8662481096978045</v>
+        <v>1.8662481096978043</v>
       </c>
       <c r="E18">
-        <v>0.72316885295556466</v>
+        <v>0.72316885295556443</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
-        <v>7.7667424784810146E-2</v>
+        <v>7.7667424784810299E-2</v>
       </c>
       <c r="B19">
         <v>2.0235628601329849</v>
@@ -708,24 +708,24 @@
         <v>1.9546356951393964</v>
       </c>
       <c r="D19">
-        <v>1.8804064372369707</v>
+        <v>1.8804064372369704</v>
       </c>
       <c r="E19">
-        <v>0.72701260424075986</v>
+        <v>0.72701260424075964</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
-        <v>6.9163872027702356E-2</v>
+        <v>6.9163872027702508E-2</v>
       </c>
       <c r="B20">
-        <v>2.0208434802619761</v>
+        <v>2.0208434802619766</v>
       </c>
       <c r="C20">
         <v>1.9593261644500033</v>
       </c>
       <c r="D20">
-        <v>1.8930457711092212</v>
+        <v>1.893045771109221</v>
       </c>
       <c r="E20">
         <v>0.72935354739595382</v>
@@ -733,24 +733,24 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
-        <v>6.15717186971333E-2</v>
+        <v>6.1571718697133418E-2</v>
       </c>
       <c r="B21">
-        <v>2.0183326407871034</v>
+        <v>2.0183326407871038</v>
       </c>
       <c r="C21">
         <v>1.9634887322974461</v>
       </c>
       <c r="D21">
-        <v>1.9043215893802308</v>
+        <v>1.9043215893802306</v>
       </c>
       <c r="E21">
-        <v>0.73094865524743424</v>
+        <v>0.73094865524743458</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
-        <v>5.4889424530941082E-2</v>
+        <v>5.4889424530941158E-2</v>
       </c>
       <c r="B22">
         <v>2.0161509447354198</v>
@@ -762,12 +762,12 @@
         <v>1.9143862313621978</v>
       </c>
       <c r="E22">
-        <v>0.73232356973955259</v>
+        <v>0.73232356973955282</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
-        <v>4.9030038327224051E-2</v>
+        <v>4.9030038327224093E-2</v>
       </c>
       <c r="B23">
         <v>2.0143097896778306</v>
@@ -779,46 +779,46 @@
         <v>1.9233793516106048</v>
       </c>
       <c r="E23">
-        <v>0.73373069930579304</v>
+        <v>0.73373069930579315</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
-        <v>4.3872143635534287E-2</v>
+        <v>4.3872143635534294E-2</v>
       </c>
       <c r="B24">
         <v>2.0127581049117769</v>
       </c>
       <c r="C24">
-        <v>1.9736901091979784</v>
+        <v>1.9736901091979786</v>
       </c>
       <c r="D24">
         <v>1.9314234394077103</v>
       </c>
       <c r="E24">
-        <v>0.73521715443973468</v>
+        <v>0.73521715443973501</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
-        <v>3.929765065022079E-2</v>
+        <v>3.9297650650220763E-2</v>
       </c>
       <c r="B25">
         <v>2.0114254305476753</v>
       </c>
       <c r="C25">
-        <v>1.9764545937329712</v>
+        <v>1.9764545937329714</v>
       </c>
       <c r="D25">
         <v>1.9386236186103072</v>
       </c>
       <c r="E25">
-        <v>0.73672291949507118</v>
+        <v>0.7367229194950714</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
-        <v>3.5210803425341317E-2</v>
+        <v>3.5210803425341261E-2</v>
       </c>
       <c r="B26">
         <v>2.0102492605353239</v>
@@ -827,18 +827,18 @@
         <v>1.9789329473346391</v>
       </c>
       <c r="D26">
-        <v>1.9450699263835585</v>
+        <v>1.9450699263835587</v>
       </c>
       <c r="E26">
-        <v>0.73816161461319096</v>
+        <v>0.73816161461319107</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
-        <v>3.1541815945485621E-2</v>
+        <v>3.1541815945485559E-2</v>
       </c>
       <c r="B27">
-        <v>2.0091855800358212</v>
+        <v>2.0091855800358216</v>
       </c>
       <c r="C27">
         <v>1.9811439523874685</v>
@@ -847,63 +847,63 @@
         <v>1.9508403352122623</v>
       </c>
       <c r="E27">
-        <v>0.73946650821361415</v>
+        <v>0.73946650821361437</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
-        <v>2.8241852517580029E-2</v>
+        <v>2.8241852517579987E-2</v>
       </c>
       <c r="B28">
         <v>2.0082082838412902</v>
       </c>
       <c r="C28">
-        <v>1.9831085396237667</v>
+        <v>1.9831085396237669</v>
       </c>
       <c r="D28">
-        <v>1.9560034505888746</v>
+        <v>1.9560034505888748</v>
       </c>
       <c r="E28">
-        <v>0.74060524720019061</v>
+        <v>0.7406052472001905</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
-        <v>2.5275259183865414E-2</v>
+        <v>2.5275259183865407E-2</v>
       </c>
       <c r="B29">
-        <v>2.00730232245829</v>
+        <v>2.0073023224582904</v>
       </c>
       <c r="C29">
-        <v>1.9848482849570153</v>
+        <v>1.9848482849570155</v>
       </c>
       <c r="D29">
-        <v>1.9606203490571221</v>
+        <v>1.9606203490571223</v>
       </c>
       <c r="E29">
-        <v>0.741574152432811</v>
+        <v>0.74157415243281111</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
-        <v>2.2613010035249691E-2</v>
+        <v>2.2613010035249712E-2</v>
       </c>
       <c r="B30">
         <v>2.0064574947191951</v>
       </c>
       <c r="C30">
-        <v>1.9863820424993124</v>
+        <v>1.9863820424993128</v>
       </c>
       <c r="D30">
         <v>1.9647456921667086</v>
       </c>
       <c r="E30">
-        <v>0.74238546201364985</v>
+        <v>0.74238546201364974</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
-        <v>2.0228437025464344E-2</v>
+        <v>2.0228437025464379E-2</v>
       </c>
       <c r="B31">
         <v>2.0056609191219845</v>
@@ -912,7 +912,7 @@
         <v>1.9877253465759206</v>
       </c>
       <c r="D31">
-        <v>1.9684280625926838</v>
+        <v>1.9684280625926835</v>
       </c>
       <c r="E31">
         <v>0.74305292330189154</v>
@@ -920,41 +920,41 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
-        <v>1.80958470535597E-2</v>
+        <v>1.8095847053559714E-2</v>
       </c>
       <c r="B32">
         <v>2.0048966742227448</v>
       </c>
       <c r="C32">
-        <v>1.9888857551083681</v>
+        <v>1.9888857551083683</v>
       </c>
       <c r="D32">
         <v>1.9717102376393891</v>
       </c>
       <c r="E32">
-        <v>0.74358442795806412</v>
+        <v>0.74358442795806423</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
-        <v>1.61898600680737E-2</v>
+        <v>1.6189860068073641E-2</v>
       </c>
       <c r="B33">
-        <v>2.0041369798466797</v>
+        <v>2.0041369798466802</v>
       </c>
       <c r="C33">
         <v>1.9898668332535303</v>
       </c>
       <c r="D33">
-        <v>1.9746286444380452</v>
+        <v>1.9746286444380454</v>
       </c>
       <c r="E33">
-        <v>0.74397243561096715</v>
+        <v>0.74397243561096749</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
-        <v>1.4487059723701106E-2</v>
+        <v>1.4487059723700978E-2</v>
       </c>
       <c r="B34">
         <v>2.003351606490861</v>
@@ -963,15 +963,15 @@
         <v>1.9906560713036345</v>
       </c>
       <c r="D34">
-        <v>1.9772137110227985</v>
+        <v>1.9772137110227987</v>
       </c>
       <c r="E34">
-        <v>0.74419812083014347</v>
+        <v>0.74419812083014358</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
-        <v>1.296468156196476E-2</v>
+        <v>1.2964681561964583E-2</v>
       </c>
       <c r="B35">
         <v>2.0024826097544777</v>
@@ -988,41 +988,41 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
-        <v>1.1604649924566137E-2</v>
+        <v>1.1604649924565986E-2</v>
       </c>
       <c r="B36">
-        <v>2.0014796139281077</v>
+        <v>2.0014796139281072</v>
       </c>
       <c r="C36">
-        <v>1.9915701305327689</v>
+        <v>1.9915701305327687</v>
       </c>
       <c r="D36">
         <v>1.981467165090401</v>
       </c>
       <c r="E36">
-        <v>0.7439662509438455</v>
+        <v>0.74396625094384505</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
-        <v>1.0386870474370424E-2</v>
+        <v>1.0386870474370357E-2</v>
       </c>
       <c r="B37">
         <v>2.000215436391831</v>
       </c>
       <c r="C37">
-        <v>1.9916107260093663</v>
+        <v>1.9916107260093661</v>
       </c>
       <c r="D37">
         <v>1.9831545095075298</v>
       </c>
       <c r="E37">
-        <v>0.74333451628941116</v>
+        <v>0.74333451628941072</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
-        <v>9.30171426906958E-3</v>
+        <v>9.3017142690695435E-3</v>
       </c>
       <c r="B38">
         <v>1.9986140884837003</v>
@@ -1031,52 +1031,52 @@
         <v>1.9912175487079276</v>
       </c>
       <c r="D38">
-        <v>1.9845458716153852</v>
+        <v>1.984545871615385</v>
       </c>
       <c r="E38">
-        <v>0.74221018834425334</v>
+        <v>0.74221018834425312</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
-        <v>8.3262888796092529E-3</v>
+        <v>8.3262888796092668E-3</v>
       </c>
       <c r="B39">
         <v>1.9963691557686407</v>
       </c>
       <c r="C39">
-        <v>1.9903454249442811</v>
+        <v>1.9903454249442809</v>
       </c>
       <c r="D39">
-        <v>1.9856099671891783</v>
+        <v>1.985609967189178</v>
       </c>
       <c r="E39">
-        <v>0.74030708264359502</v>
+        <v>0.74030708264359468</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
-        <v>7.4679310721769993E-3</v>
+        <v>7.4679310721770869E-3</v>
       </c>
       <c r="B40">
-        <v>1.9934037846973747</v>
+        <v>1.9934037846973744</v>
       </c>
       <c r="C40">
         <v>1.9886029950233515</v>
       </c>
       <c r="D40">
-        <v>1.986311410764916</v>
+        <v>1.9863114107649156</v>
       </c>
       <c r="E40">
-        <v>0.73743803192739121</v>
+        <v>0.73743803192739088</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
-        <v>6.6827401243234105E-3</v>
+        <v>6.6827401243235111E-3</v>
       </c>
       <c r="B41">
-        <v>1.9889212506159581</v>
+        <v>1.9889212506159584</v>
       </c>
       <c r="C41">
         <v>1.9860105869690967</v>
@@ -1085,46 +1085,46 @@
         <v>1.9865462963515097</v>
       </c>
       <c r="E41">
-        <v>0.73289354764122905</v>
+        <v>0.73289354764122927</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
-        <v>6.026886150418455E-3</v>
+        <v>6.0268861504185495E-3</v>
       </c>
       <c r="B42">
-        <v>1.983034868422328</v>
+        <v>1.9830348684223282</v>
       </c>
       <c r="C42">
-        <v>1.9814836853480449</v>
+        <v>1.9814836853480451</v>
       </c>
       <c r="D42">
         <v>1.9862302678378834</v>
       </c>
       <c r="E42">
-        <v>0.72644087132827395</v>
+        <v>0.72644087132827417</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
-        <v>5.3751687410549904E-3</v>
+        <v>5.3751687410550563E-3</v>
       </c>
       <c r="B43">
         <v>1.9735358422263429</v>
       </c>
       <c r="C43">
-        <v>1.9754988760683285</v>
+        <v>1.975498876068329</v>
       </c>
       <c r="D43">
         <v>1.9850877695328446</v>
       </c>
       <c r="E43">
-        <v>0.71623582588922607</v>
+        <v>0.71623582588922619</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
-        <v>4.9451578629795901E-3</v>
+        <v>4.9451578629796274E-3</v>
       </c>
       <c r="B44">
         <v>1.9616154254435942</v>
@@ -1133,32 +1133,32 @@
         <v>1.9649057080006238</v>
       </c>
       <c r="D44">
-        <v>1.9829752585648122</v>
+        <v>1.9829752585648124</v>
       </c>
       <c r="E44">
-        <v>0.70237303362223469</v>
+        <v>0.70237303362223502</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
-        <v>4.3229360377254967E-3</v>
+        <v>4.3229360377254854E-3</v>
       </c>
       <c r="B45">
-        <v>1.9407917972969608</v>
+        <v>1.9407917972969611</v>
       </c>
       <c r="C45">
-        <v>1.9522464144205207</v>
+        <v>1.9522464144205212</v>
       </c>
       <c r="D45">
-        <v>1.9791787470507054</v>
+        <v>1.9791787470507056</v>
       </c>
       <c r="E45">
-        <v>0.67979056212304667</v>
+        <v>0.67979056212304678</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
-        <v>4.2773876684296134E-3</v>
+        <v>4.27738766842959E-3</v>
       </c>
       <c r="B46">
         <v>1.9168891380939637</v>
@@ -1170,12 +1170,12 @@
         <v>1.9735726822445989</v>
       </c>
       <c r="E46">
-        <v>0.65075525515231125</v>
+        <v>0.65075525515231136</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
-        <v>3.3869363573466836E-3</v>
+        <v>3.386936357346645E-3</v>
       </c>
       <c r="B47">
         <v>1.8699520478939862</v>
@@ -1187,15 +1187,15 @@
         <v>1.9642468251530438</v>
       </c>
       <c r="E47">
-        <v>0.60058447957917582</v>
+        <v>0.60058447957917593</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
-        <v>4.319512419410477E-3</v>
+        <v>4.3195124194104388E-3</v>
       </c>
       <c r="B48">
-        <v>1.8237734230919034</v>
+        <v>1.8237734230919036</v>
       </c>
       <c r="C48">
         <v>1.8461155517749903</v>
@@ -1204,46 +1204,46 @@
         <v>1.9516042189675411</v>
       </c>
       <c r="E48">
-        <v>0.54128547955764605</v>
+        <v>0.54128547955764617</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
-        <v>2.1534025700575103E-3</v>
+        <v>2.1534025700574748E-3</v>
       </c>
       <c r="B49">
         <v>1.71457802133745</v>
       </c>
       <c r="C49">
-        <v>1.7995208134636203</v>
+        <v>1.7995208134636205</v>
       </c>
       <c r="D49">
-        <v>1.9302718611808327</v>
+        <v>1.9302718611808329</v>
       </c>
       <c r="E49">
-        <v>0.42811694889043039</v>
+        <v>0.42811694889043045</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
-        <v>6.115616941848318E-3</v>
+        <v>6.1156169418482859E-3</v>
       </c>
       <c r="B50">
-        <v>1.6324954887812864</v>
+        <v>1.6324954887812866</v>
       </c>
       <c r="C50">
         <v>1.663771528608301</v>
       </c>
       <c r="D50">
-        <v>1.9034719876648736</v>
+        <v>1.9034719876648738</v>
       </c>
       <c r="E50">
-        <v>0.31155480082003573</v>
+        <v>0.31155480082003578</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
-        <v>-8.5290451124724899E-4</v>
+        <v>-8.5290451124732218E-4</v>
       </c>
       <c r="B51">
         <v>1.3680959749959003</v>
@@ -1255,7 +1255,7 @@
         <v>1.855288146524666</v>
       </c>
       <c r="E51">
-        <v>4.9744166436723747E-2</v>
+        <v>4.9744166436724004E-2</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">

--- a/result/25hike.xlsx
+++ b/result/25hike.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/db8eac9eaa5b2f1d/デスクトップ/08_点検/result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{7A6B1D21-EA0A-46C6-BD1C-C47C4D0CB783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAA321D3-C093-4F44-9019-806ACA4510DF}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{7A6B1D21-EA0A-46C6-BD1C-C47C4D0CB783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32A080D0-C902-4AC7-9942-0BCC046359C2}"/>
   <bookViews>
     <workbookView xWindow="38235" yWindow="4380" windowWidth="19365" windowHeight="10275" xr2:uid="{3900A3B1-9A1A-403A-8E6B-496B7FAC29A3}"/>
   </bookViews>
